--- a/Carl Task List.xlsx
+++ b/Carl Task List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="158">
   <si>
     <t>Task No.</t>
   </si>
@@ -486,13 +486,28 @@
   </si>
   <si>
     <t>Later</t>
+  </si>
+  <si>
+    <t>Try to run the complete solution</t>
+  </si>
+  <si>
+    <t>Review how the system run</t>
+  </si>
+  <si>
+    <t>Dec 28-29</t>
+  </si>
+  <si>
+    <t>Study about accessor(C#)/ javascript</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -524,6 +539,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -551,7 +572,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -609,6 +630,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -702,8 +735,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C228" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C228"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C240" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C240"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Task No." totalsRowLabel="Total" dataDxfId="2"/>
     <tableColumn id="2" name="Task" dataDxfId="1"/>
@@ -979,10 +1012,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:E228"/>
+  <dimension ref="A1:E240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B228" sqref="B228"/>
+    <sheetView tabSelected="1" topLeftCell="A232" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A236" sqref="A236:C240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -3125,7 +3158,7 @@
     </row>
     <row r="217" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A217" s="7"/>
-      <c r="B217" s="15">
+      <c r="B217" s="23">
         <v>42727</v>
       </c>
       <c r="C217" s="9"/>
@@ -3175,7 +3208,7 @@
     </row>
     <row r="223" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A223" s="7"/>
-      <c r="B223" s="15">
+      <c r="B223" s="23">
         <v>42731</v>
       </c>
       <c r="C223" s="9"/>
@@ -3222,6 +3255,118 @@
       <c r="A228" s="18"/>
       <c r="B228" s="19"/>
       <c r="C228" s="19"/>
+    </row>
+    <row r="229" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A229" s="20"/>
+      <c r="B229" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C229" s="21"/>
+    </row>
+    <row r="230" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A230" s="18">
+        <v>153</v>
+      </c>
+      <c r="B230" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="C230" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A231" s="18">
+        <v>154</v>
+      </c>
+      <c r="B231" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C231" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A232" s="18">
+        <v>155</v>
+      </c>
+      <c r="B232" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="C232" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A233" s="18">
+        <v>156</v>
+      </c>
+      <c r="B233" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C233" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A234" s="18"/>
+      <c r="B234" s="19"/>
+      <c r="C234" s="19"/>
+    </row>
+    <row r="235" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A235" s="18"/>
+      <c r="B235" s="19"/>
+      <c r="C235" s="19"/>
+    </row>
+    <row r="236" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A236" s="20"/>
+      <c r="B236" s="22">
+        <v>42752</v>
+      </c>
+      <c r="C236" s="21"/>
+    </row>
+    <row r="237" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A237" s="18">
+        <v>157</v>
+      </c>
+      <c r="B237" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="C237" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A238" s="18">
+        <v>158</v>
+      </c>
+      <c r="B238" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C238" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A239" s="18">
+        <v>159</v>
+      </c>
+      <c r="B239" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C239" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A240" s="18">
+        <v>160</v>
+      </c>
+      <c r="B240" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C240" s="19" t="s">
+        <v>150</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Carl Task List.xlsx
+++ b/Carl Task List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="161">
   <si>
     <t>Task No.</t>
   </si>
@@ -498,6 +498,15 @@
   </si>
   <si>
     <t>Study about accessor(C#)/ javascript</t>
+  </si>
+  <si>
+    <t>January 04-05</t>
+  </si>
+  <si>
+    <t>Study about User Control that was used in the Shipr</t>
+  </si>
+  <si>
+    <t>Revise the Process Flow Diagram base on the Shipr</t>
   </si>
 </sst>
 </file>
@@ -505,7 +514,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -637,10 +646,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -735,8 +744,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C240" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C240"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C251" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C251"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Task No." totalsRowLabel="Total" dataDxfId="2"/>
     <tableColumn id="2" name="Task" dataDxfId="1"/>
@@ -1012,10 +1021,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:E240"/>
+  <dimension ref="A1:E251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A236" sqref="A236:C240"/>
+    <sheetView tabSelected="1" topLeftCell="A239" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B249" sqref="B249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -3320,7 +3329,7 @@
     <row r="236" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A236" s="20"/>
       <c r="B236" s="22">
-        <v>42752</v>
+        <v>42738</v>
       </c>
       <c r="C236" s="21"/>
     </row>
@@ -3367,6 +3376,93 @@
       <c r="C240" s="19" t="s">
         <v>150</v>
       </c>
+    </row>
+    <row r="241" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A241" s="18"/>
+      <c r="B241" s="19"/>
+      <c r="C241" s="19"/>
+    </row>
+    <row r="242" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A242" s="18"/>
+      <c r="B242" s="19"/>
+      <c r="C242" s="19"/>
+    </row>
+    <row r="243" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A243" s="20"/>
+      <c r="B243" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C243" s="21"/>
+    </row>
+    <row r="244" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A244" s="18">
+        <v>160</v>
+      </c>
+      <c r="B244" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="C244" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A245" s="18">
+        <v>161</v>
+      </c>
+      <c r="B245" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C245" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A246" s="18">
+        <v>162</v>
+      </c>
+      <c r="B246" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C246" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A247" s="18">
+        <v>163</v>
+      </c>
+      <c r="B247" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="C247" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A248" s="18">
+        <v>164</v>
+      </c>
+      <c r="B248" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C248" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A249" s="18"/>
+      <c r="B249" s="19"/>
+      <c r="C249" s="19"/>
+    </row>
+    <row r="250" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A250" s="18"/>
+      <c r="B250" s="19"/>
+      <c r="C250" s="19"/>
+    </row>
+    <row r="251" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A251" s="18"/>
+      <c r="B251" s="19"/>
+      <c r="C251" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Carl Task List.xlsx
+++ b/Carl Task List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="161">
   <si>
     <t>Task No.</t>
   </si>
@@ -744,8 +744,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C251" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C251"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C257" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C257"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Task No." totalsRowLabel="Total" dataDxfId="2"/>
     <tableColumn id="2" name="Task" dataDxfId="1"/>
@@ -1021,10 +1021,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:E251"/>
+  <dimension ref="A1:E257"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A239" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B249" sqref="B249"/>
+      <selection activeCell="C252" sqref="C252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -3460,9 +3460,71 @@
       <c r="C250" s="19"/>
     </row>
     <row r="251" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A251" s="18"/>
-      <c r="B251" s="19"/>
-      <c r="C251" s="19"/>
+      <c r="A251" s="20"/>
+      <c r="B251" s="22">
+        <v>42741</v>
+      </c>
+      <c r="C251" s="21"/>
+    </row>
+    <row r="252" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A252" s="18">
+        <v>165</v>
+      </c>
+      <c r="B252" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="C252" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A253" s="18">
+        <v>166</v>
+      </c>
+      <c r="B253" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C253" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A254" s="18">
+        <v>167</v>
+      </c>
+      <c r="B254" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C254" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A255" s="18">
+        <v>168</v>
+      </c>
+      <c r="B255" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="C255" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A256" s="18">
+        <v>169</v>
+      </c>
+      <c r="B256" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C256" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A257" s="18"/>
+      <c r="B257" s="19"/>
+      <c r="C257" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
